--- a/TalentProfileProject/Data/ShareSkill_Data.xlsx
+++ b/TalentProfileProject/Data/ShareSkill_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Renu\Indusconnect\TalentProfileProject\TalentProfileProject\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Renu\Indusconnect\TalentShareSkillProject\TalentProfileProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B47592-3EE3-44EF-835A-EA9EEE155A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C878A2-7C8F-4914-AF22-3D719D6C83FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Data_ShareSkill" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>Title</t>
   </si>
@@ -55,24 +55,6 @@
     <t>Programming Tech 4</t>
   </si>
   <si>
-    <t>Programming Tech 5</t>
-  </si>
-  <si>
-    <t>Programming Tech 6</t>
-  </si>
-  <si>
-    <t>Programming Tech 7</t>
-  </si>
-  <si>
-    <t>Programming Tech 8</t>
-  </si>
-  <si>
-    <t>Programming Tech 9</t>
-  </si>
-  <si>
-    <t>Programming Tech 10</t>
-  </si>
-  <si>
     <t>Test Analyst Role 1</t>
   </si>
   <si>
@@ -82,24 +64,6 @@
     <t>Test Analyst Role 4</t>
   </si>
   <si>
-    <t>Test Analyst Role 5</t>
-  </si>
-  <si>
-    <t>Test Analyst Role 6</t>
-  </si>
-  <si>
-    <t>Test Analyst Role 7</t>
-  </si>
-  <si>
-    <t>Test Analyst Role 8</t>
-  </si>
-  <si>
-    <t>Test Analyst Role 9</t>
-  </si>
-  <si>
-    <t>Test Analyst Role 10</t>
-  </si>
-  <si>
     <t>Test Analyst Role 2</t>
   </si>
   <si>
@@ -115,45 +79,21 @@
     <t>Video &amp; Animation</t>
   </si>
   <si>
-    <t>Music &amp; Audio</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
     <t>Logo Design</t>
   </si>
   <si>
-    <t>Flyers &amp; Brochures</t>
-  </si>
-  <si>
     <t>Social Media Marketing</t>
   </si>
   <si>
-    <t>Email Marketing</t>
-  </si>
-  <si>
     <t>Resumes &amp; Cover Letters</t>
   </si>
   <si>
-    <t>Creative Writing</t>
-  </si>
-  <si>
     <t>Promotional Videos</t>
   </si>
   <si>
-    <t>Voice Over</t>
-  </si>
-  <si>
-    <t>Presentations</t>
-  </si>
-  <si>
-    <t>Financial Consulting</t>
-  </si>
-  <si>
     <t>ServiceTag</t>
   </si>
   <si>
@@ -169,24 +109,6 @@
     <t>Test Engineer 4</t>
   </si>
   <si>
-    <t>Test Engineer 5</t>
-  </si>
-  <si>
-    <t>Test Engineer 6</t>
-  </si>
-  <si>
-    <t>Test Engineer 7</t>
-  </si>
-  <si>
-    <t>Test Engineer 8</t>
-  </si>
-  <si>
-    <t>Test Engineer 9</t>
-  </si>
-  <si>
-    <t>Test Engineer 10</t>
-  </si>
-  <si>
     <t>ServiceType</t>
   </si>
   <si>
@@ -217,24 +139,6 @@
     <t>Test Engineer &amp; Desgning 4</t>
   </si>
   <si>
-    <t>Test Engineer &amp; Desgning 5</t>
-  </si>
-  <si>
-    <t>Test Engineer &amp; Desgning 6</t>
-  </si>
-  <si>
-    <t>Test Engineer &amp; Desgning 7</t>
-  </si>
-  <si>
-    <t>Test Engineer &amp; Desgning 8</t>
-  </si>
-  <si>
-    <t>Test Engineer &amp; Desgning 9</t>
-  </si>
-  <si>
-    <t>Test Engineer &amp; Desgning 10</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
@@ -248,6 +152,21 @@
   </si>
   <si>
     <t>Credit</t>
+  </si>
+  <si>
+    <t>WrkSample</t>
+  </si>
+  <si>
+    <t>uploadFile1.txt</t>
+  </si>
+  <si>
+    <t>uploadFile2.txt</t>
+  </si>
+  <si>
+    <t>uploadFile3.txt</t>
+  </si>
+  <si>
+    <t>uploadFile4.txt</t>
   </si>
 </sst>
 </file>
@@ -576,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,9 +516,10 @@
     <col min="11" max="11" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.109375" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" style="2"/>
+    <col min="14" max="14" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,54 +527,57 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>66</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -669,33 +592,36 @@
         <v>45043</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -710,33 +636,36 @@
         <v>45044</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="L3">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -751,33 +680,36 @@
         <v>45045</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L4">
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
+      </c>
+      <c r="N4" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -792,262 +724,19 @@
         <v>45046</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>45037</v>
-      </c>
-      <c r="I6" s="1">
-        <v>45047</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K6" t="s">
-        <v>60</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>45038</v>
-      </c>
-      <c r="I7" s="1">
-        <v>45048</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7">
-        <v>6</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>45039</v>
-      </c>
-      <c r="I8" s="1">
-        <v>45049</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>62</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" s="1">
-        <v>45040</v>
-      </c>
-      <c r="I9" s="1">
-        <v>45050</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K9" t="s">
-        <v>63</v>
-      </c>
-      <c r="L9">
-        <v>8</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>45041</v>
-      </c>
-      <c r="I10" s="1">
-        <v>45051</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10">
-        <v>9</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>45042</v>
-      </c>
-      <c r="I11" s="1">
-        <v>45052</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11">
-        <v>10</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>69</v>
+      <c r="N5" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/TalentProfileProject/Data/ShareSkill_Data.xlsx
+++ b/TalentProfileProject/Data/ShareSkill_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Renu\Indusconnect\TalentShareSkillProject\TalentProfileProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C878A2-7C8F-4914-AF22-3D719D6C83FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E529BC08-6849-4A1C-ACEE-5022D79852B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -211,10 +211,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +501,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,10 +582,10 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="1">
@@ -597,7 +600,7 @@
       <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="3">
         <v>1</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -623,10 +626,10 @@
       <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>1</v>
       </c>
       <c r="H3" s="1">
@@ -641,7 +644,7 @@
       <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>2</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -667,10 +670,10 @@
       <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="1">
@@ -685,7 +688,7 @@
       <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>3</v>
       </c>
       <c r="M4" s="2" t="s">
@@ -711,10 +714,10 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -729,7 +732,7 @@
       <c r="K5" t="s">
         <v>33</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>4</v>
       </c>
       <c r="M5" s="2" t="s">
